--- a/dna_source_plates/cargo_plates/P3510_SSW_cnt_patterning.xlsx
+++ b/dna_source_plates/cargo_plates/P3510_SSW_cnt_patterning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3064D74-C704-374B-A848-2839BFFB399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5ED025-4CEE-A944-AFAC-2A906235C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-20260" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -787,15 +787,6 @@
     <t>Oligo SW065 for BioNwire collab, gold nanowire anti-handle with 5 nt handle on position h5 position 16</t>
   </si>
   <si>
-    <t>SW065-BioNwire-goldnanowireantihandle-5nt_h5_pos16</t>
-  </si>
-  <si>
-    <t>SW066-BioNwire-goldnanowireantihandle-10nt_h5_pos16</t>
-  </si>
-  <si>
-    <t>SW067-BioNwire-goldnanowireantihandle-15nt_h5_pos16</t>
-  </si>
-  <si>
     <t>Oligo SW066 for BioNwire collab, gold nanowire anti-handle with 10 nt handle on position h5 position 16</t>
   </si>
   <si>
@@ -809,6 +800,15 @@
   </si>
   <si>
     <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGA tt ATAAAAGCATGACAG</t>
+  </si>
+  <si>
+    <t>SW065GoldNanowireAntiHandle5nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>SW067GoldNanowireAntiHandle15nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>SW066GoldNanowireAntiHandle10nt_h5_pos16</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1527,13 +1527,13 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2067,13 +2067,13 @@
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2626,10 +2626,10 @@
         <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">

--- a/dna_source_plates/cargo_plates/P3510_SSW_cnt_patterning.xlsx
+++ b/dna_source_plates/cargo_plates/P3510_SSW_cnt_patterning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/dna_source_plates/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5ED025-4CEE-A944-AFAC-2A906235C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BEE659-61CF-2844-A522-9DA6F5B9D1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="-13940" windowWidth="34620" windowHeight="13600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="364">
   <si>
     <t>1</t>
   </si>
@@ -809,6 +809,324 @@
   </si>
   <si>
     <t>SW066GoldNanowireAntiHandle10nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>h5 pos4 GNP black handle</t>
+  </si>
+  <si>
+    <t>h5 pos20 GNP black handle</t>
+  </si>
+  <si>
+    <t>h5 pos12 GNP orange handle</t>
+  </si>
+  <si>
+    <t>h5 pos28 GNP orange handle</t>
+  </si>
+  <si>
+    <t>ATCCGCCGGGATCCAGCGCAGTGTCACTCGCCGCTACAGGGC tt AATAATAATAATAATAAT</t>
+  </si>
+  <si>
+    <t>CCACCCTCACAGACGTTAGTAAATGAATAATATCAAACCCTC tt AATAATAATAATAATAAT</t>
+  </si>
+  <si>
+    <t>AATATGCAATAGTAGTAGCATTAACATCACATTTTGACGCTC tt TTCTAATTTCAAATTCAT</t>
+  </si>
+  <si>
+    <t>CATCCTAATTCCGGTATTCTAAGAACGCTTCTGAATAATGGA tt TTCTAATTTCAAATTCAT</t>
+  </si>
+  <si>
+    <t>CNTGNPBlack_h5_pos4</t>
+  </si>
+  <si>
+    <t>CNTGNPBlack_h5_pos20</t>
+  </si>
+  <si>
+    <t>CNTGNPOrange_h5_pos12</t>
+  </si>
+  <si>
+    <t>CNTGNPOrange_h5_pos28</t>
+  </si>
+  <si>
+    <t>h5 pos1 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos3 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos5 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos7 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos9 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos11 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos13 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos15 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos17 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos19 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos21 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos23 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos25 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos27 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos29 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos31 with CNT handle L3 based on final 10nts of Krusty</t>
+  </si>
+  <si>
+    <t>h5 pos1 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos3 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos5 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos7 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos9 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos11 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos13 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos15 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos17 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos19 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos21 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos23 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos25 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos27 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos29 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>h5 pos31 with CNT handle L2</t>
+  </si>
+  <si>
+    <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAG tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>TCTGTGGTGGCTCACAATTCCACACAACCGGTCACGCTGCGC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>TTTTCGTCTTCAGCGGGGTCATTGCAGGTATAACGTGCTTTC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GCTATTACGGTTTACCAGTCCCGGAATTGAATCCTGAGAAGT tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GGAAGATTGCGTCGGATTCTCCGTGGGACTTCTTTGATTAGT tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GGCAAGGCATAGGTAAAGATTCAAAAGGCCGCCAGCCATTGC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>AGCGGATTGGCTGAATATAATGCTGTAGGCAGATTCACCAGT tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>TAAGAACTGCAACACTATCATAACCCTCATACGTGGCACAGA tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>ACGAAAGAGCCGAACTGACCAACTTTGACCGAACGAACCACC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>TTTGCTAAAACCGATAGTTGCGCCGACAGCAGCAAATGAAAA tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>ACAGTTAATTCAGGAGGTTTAGTACCGCACAGTTGAAAGGAA tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GAATCAAGTCCCTCAGAGCCGCCACCAGACATTTGAGGATTT tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GAACAAAGTCAATCAATAGAAAATTCATAAAGTTTGAGTAAC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>AACCTCCCGTTTTTGTTTAACGTCAAAAGATGGCAATTCATC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>GTAGGGCTTATAGATAAGTCCTGAACAATTTGCACGTAAAAC tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>ATATATGTGATATAACTATATGTAAATGTCGGGAGAAACAAT tt TAAGTGGT</t>
+  </si>
+  <si>
+    <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAG tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>TCTGTGGTGGCTCACAATTCCACACAACCGGTCACGCTGCGC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>TTTTCGTCTTCAGCGGGGTCATTGCAGGTATAACGTGCTTTC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GCTATTACGGTTTACCAGTCCCGGAATTGAATCCTGAGAAGT tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GGAAGATTGCGTCGGATTCTCCGTGGGACTTCTTTGATTAGT tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GGCAAGGCATAGGTAAAGATTCAAAAGGCCGCCAGCCATTGC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>AGCGGATTGGCTGAATATAATGCTGTAGGCAGATTCACCAGT tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>TAAGAACTGCAACACTATCATAACCCTCATACGTGGCACAGA tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>ACGAAAGAGCCGAACTGACCAACTTTGACCGAACGAACCACC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>TTTGCTAAAACCGATAGTTGCGCCGACAGCAGCAAATGAAAA tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>ACAGTTAATTCAGGAGGTTTAGTACCGCACAGTTGAAAGGAA tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GAATCAAGTCCCTCAGAGCCGCCACCAGACATTTGAGGATTT tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GAACAAAGTCAATCAATAGAAAATTCATAAAGTTTGAGTAAC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>AACCTCCCGTTTTTGTTTAACGTCAAAAGATGGCAATTCATC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>GTAGGGCTTATAGATAAGTCCTGAACAATTTGCACGTAAAAC tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>ATATATGTGATATAACTATATGTAAATGTCGGGAGAAACAAT tt CTAACTTC</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos1</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos5</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos7</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos9</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos11</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos13</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos15</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos17</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos19</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos21</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos23</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos25</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos27</t>
+  </si>
+  <si>
+    <t>CNTbindingL2_h5_pos31</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos1</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos3</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos5</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos7</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos9</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos11</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos13</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos15</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos17</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos19</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos21</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos23</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos25</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos27</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos29</t>
+  </si>
+  <si>
+    <t>CNTbindingL3Krusty_h5_pos31</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1540,25 +1858,133 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="L13" t="s">
+        <v>307</v>
+      </c>
+      <c r="N13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P13" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" t="s">
+        <v>314</v>
+      </c>
+      <c r="L14" t="s">
+        <v>315</v>
+      </c>
+      <c r="N14" t="s">
+        <v>316</v>
+      </c>
+      <c r="P14" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" t="s">
+        <v>321</v>
+      </c>
+      <c r="J15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" t="s">
+        <v>323</v>
+      </c>
+      <c r="N15" t="s">
+        <v>324</v>
+      </c>
+      <c r="P15" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" t="s">
+        <v>331</v>
+      </c>
+      <c r="N16" t="s">
+        <v>332</v>
+      </c>
+      <c r="P16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1575,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2101,10 +2527,18 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2130,21 +2564,37 @@
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2159,21 +2609,37 @@
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -2188,21 +2654,37 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2217,21 +2699,37 @@
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -2273,6 +2771,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2281,7 +2780,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2636,25 +3135,133 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" t="s">
+        <v>291</v>
+      </c>
+      <c r="N13" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" t="s">
+        <v>273</v>
+      </c>
+      <c r="J15" t="s">
+        <v>274</v>
+      </c>
+      <c r="L15" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" t="s">
+        <v>276</v>
+      </c>
+      <c r="P15" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" t="s">
+        <v>281</v>
+      </c>
+      <c r="J16" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" t="s">
+        <v>283</v>
+      </c>
+      <c r="N16" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
